--- a/data/long_bre/P24_5-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_5-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,05</t>
+          <t>21,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-13,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,53%</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>77,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-39,08%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 33,89</t>
+          <t>9,86; 34,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 2,61</t>
+          <t>-26,94; -1,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 8,99</t>
+          <t>-16,98; 10,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,47; 162,61</t>
+          <t>-16,95; 14,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 12,7</t>
+          <t>-21,32; 15,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 33,71</t>
+          <t>28,33; 162,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-64,3; -5,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-40,25; 41,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-45,73; 92,34</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-53,13; 89,33</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,85</t>
+          <t>-17,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,44%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>-36,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,63%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-0,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -5,41</t>
+          <t>-29,39; -4,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 4,54</t>
+          <t>-21,43; 6,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 17,26</t>
+          <t>-10,02; 16,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,71; -11,86</t>
+          <t>-19,14; 15,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 12,14</t>
+          <t>-24,15; 17,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 44,97</t>
+          <t>-55,42; -11,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 18,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 44,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,99; 48,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-46,17; 55,95</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,77</t>
+          <t>20,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>91,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 7,16</t>
+          <t>-14,62; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 32,94</t>
+          <t>8,13; 34,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 12,78</t>
+          <t>-12,41; 11,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 36,61</t>
+          <t>-16,02; 15,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 190,55</t>
+          <t>-15,46; 24,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 99,61</t>
+          <t>-48,28; 31,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 211,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 80,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; 78,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-40,53; 149,98</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,15%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>118,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 1,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 28,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 14,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 9,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,44; 288,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 69,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-20,72</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-36,89%</t>
+          <t>-19,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>137,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-42,24%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 10,53</t>
+          <t>-27,44; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-35,1; -7,59</t>
+          <t>9,1; 29,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 3,01</t>
+          <t>-6,61; 14,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 25,66</t>
+          <t>-20,95; 16,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,63; -15,43</t>
+          <t>-41,93; 2,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 7,05</t>
+          <t>-60,44; 5,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45,54; 314,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,52; 71,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-44,03; 65,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-66,16; 6,0</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-22,5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>83,66%</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-38,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-18,5%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-7,04%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 25,5</t>
+          <t>-17,34; 12,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 15,68</t>
+          <t>-37,06; -8,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 15,45</t>
+          <t>-24,5; 3,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,57; 215,42</t>
+          <t>-1,55; 27,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 71,24</t>
+          <t>-30,73; 18,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 89,22</t>
+          <t>-29,88; 31,99</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-56,67; -17,38</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 6,77</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 158,74</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-53,0; 79,38</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>85,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-26,19%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>148,63%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 12,82</t>
+          <t>4,4; 24,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 11,6</t>
+          <t>-8,94; 16,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 17,71</t>
+          <t>-5,47; 16,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 64,97</t>
+          <t>-34,78; 6,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 59,38</t>
+          <t>-3,34; 35,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,61; 111,58</t>
+          <t>22,59; 211,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 72,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 98,54</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-65,34; 28,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 520,15</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-27,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 5,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 10,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 3,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; -10,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 13,5</t>
+          <t>-9,42; 10,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 18,51</t>
+          <t>-15,3; 9,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 14,17</t>
+          <t>2,33; 17,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 88,79</t>
+          <t>-3,1; 15,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 99,66</t>
+          <t>-11,12; 16,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 79,27</t>
+          <t>-27,59; 54,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-39,77; 47,22</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 109,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,17; 78,55</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-30,41; 72,05</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-9,43</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>-15,41</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>-16,54</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>-12,71%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-19,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-27,47%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-17,18%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-31,0%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 8,68</t>
+          <t>-18,66; 5,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 9,94</t>
+          <t>-19,21; 3,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,81; 18,15</t>
+          <t>-25,03; -5,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 51,38</t>
+          <t>-18,02; 2,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 82,87</t>
+          <t>-29,76; -1,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,7; 114,51</t>
+          <t>-30,9; 10,63</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; 9,51</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; -12,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-34,56; 6,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-50,17; -4,31</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-16,92</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,37</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-16,75%</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-27,74%</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>38,88%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>81,06%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,16; -0,94</t>
+          <t>-4,67; 13,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -6,58</t>
+          <t>0,82; 19,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -2,37</t>
+          <t>-8,13; 13,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -1,65</t>
+          <t>-8,43; 11,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-40,19; -11,96</t>
+          <t>0,46; 25,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-34,16; -4,65</t>
+          <t>-18,55; 90,19</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 99,29</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-24,96; 76,01</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-24,62; 49,57</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 217,0</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,46; 16,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,99; 22,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,71; 136,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>23,42; 130,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 41,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>55,86%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,96; 21,47</t>
+          <t>-6,53; 9,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 15,95</t>
+          <t>-6,9; 9,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 12,49</t>
+          <t>3,9; 18,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,34; 207,0</t>
+          <t>-15,47; 7,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 235,2</t>
+          <t>-12,71; 13,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 79,71</t>
+          <t>-24,04; 54,23</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 79,97</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 120,44</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-38,25; 29,44</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-36,28; 63,87</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-16,11</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-21,34</t>
+          <t>-17,32</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-30,86%</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>-17,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-28,23%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-19,12%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-21,66%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -4,67</t>
+          <t>-19,84; -1,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -8,71</t>
+          <t>-26,87; -6,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,93; -1,69</t>
+          <t>-18,92; -0,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -7,85</t>
+          <t>-21,32; 1,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-44,44; -14,73</t>
+          <t>-13,66; 13,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,39; -2,94</t>
+          <t>-30,14; -3,06</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-40,61; -12,66</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; -2,15</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-37,43; 3,41</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 37,62</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>68,49%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>77,39%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 11,99</t>
+          <t>0,63; 16,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,65; 23,47</t>
+          <t>6,88; 23,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 16,22</t>
+          <t>-9,33; 7,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 111,11</t>
+          <t>4,66; 21,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 147,21</t>
+          <t>-16,49; 11,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 113,67</t>
+          <t>3,19; 130,35</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 129,55</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 36,54</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 164,83</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-44,52; 50,78</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>119,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>136,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1,26; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 15,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,41; 371,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,83; 531,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 169,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-18,36</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-14,35</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-21,89%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-20,89%</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>82,91%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>79,71%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-28,34; -7,73</t>
+          <t>2,62; 19,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 5,92</t>
+          <t>0,39; 14,87</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-26,09; -1,08</t>
+          <t>-5,07; 11,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-32,7; -9,94</t>
+          <t>-7,74; 17,69</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 10,12</t>
+          <t>-10,98; 15,03</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-34,11; -1,66</t>
+          <t>13,38; 205,66</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 239,12</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 78,88</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-24,3; 89,19</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-36,06; 89,52</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-22,32</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>109,19%</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>-22,21%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-31,94%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-13,25%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-9,56%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>1,61; 18,69</t>
+          <t>-25,97; -4,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 18,19</t>
+          <t>-33,3; -9,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,3</t>
+          <t>-20,82; -0,86</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,81; 353,7</t>
+          <t>-21,74; 5,8</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-47,0; 118,24</t>
+          <t>-17,89; 9,57</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 157,6</t>
+          <t>-34,54; -7,88</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; -15,43</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-30,98; -1,45</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-34,87; 9,73</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-32,5; 24,19</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>71,6%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>42,13%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,25</t>
+          <t>-5,63; 12,3</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 8,63</t>
+          <t>2,26; 25,62</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,29</t>
+          <t>-0,34; 15,3</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 47,93</t>
+          <t>-7,82; 11,91</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 55,02</t>
+          <t>-10,39; 16,47</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>7,02; 47,17</t>
+          <t>-28,55; 122,01</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 171,35</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 108,65</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 122,6</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 77,69</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-14,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-9,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-25,22; -9,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-33,24; -17,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -8,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>122,18%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>138,39%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>168,88%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>221,26%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,9</t>
+          <t>1,86; 15,82</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,78</t>
+          <t>2,23; 19,39</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,34</t>
+          <t>0,35; 18,24</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>12,32; 66,94</t>
+          <t>3,44; 21,82</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>20,78; 67,93</t>
+          <t>9,0; 40,5</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 43,69</t>
+          <t>14,16; 350,63</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 503,02</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 225,0</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 537,2</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>39,95; 764,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-20,22</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-17,8</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-18,74</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-20,23</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-30,08</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-24,1%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-25,0%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-25,78%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-26,13%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-40,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-31,03; -11,01</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-30,22; -0,3</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-30,15; -5,77</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-33,66; -4,64</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-46,5; -13,1</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-35,41; -13,3</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-39,07; -1,69</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-38,53; -9,25</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-41,08; -7,59</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-58,92; -18,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>11,36</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>9,7</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>127,92%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>36,04%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>68,52%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>52,71%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 20,72</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 18,98</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 19,15</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 19,6</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 19,06</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 389,34</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-37,16; 133,75</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 188,78</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-25,44; 210,54</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-35,48; 218,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 7,97</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 8,12</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 10,03</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 7,63</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 8,16</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 40,39</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 52,12</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 52,49</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 33,17</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 33,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-10,86</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-15,3</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-10,2</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-9,35</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-17,96%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-18,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; -6,06</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; -9,68</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-15,2; -6,05</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 1,95</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; -1,77</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-24,84; -10,78</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-33,86; -17,87</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; -10,95</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 4,4</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; -4,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>11,52</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>36,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 10,52</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 16,54</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 7,98</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 7,64</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 13,84</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 69,96</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 79,54</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 40,9</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 36,96</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 74,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_5-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_5-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
